--- a/xlsx/保密_intext.xlsx
+++ b/xlsx/保密_intext.xlsx
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>倫理</t>
+    <t>伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%A2%BC%E5%AD%B8</t>
   </si>
   <si>
-    <t>密碼學</t>
+    <t>密码学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AF%86%E6%80%A7</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%AF%86</t>
   </si>
   <si>
-    <t>機密</t>
+    <t>机密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>傳媒</t>
+    <t>传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>議員</t>
+    <t>议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E6%83%85%E6%AC%8A</t>
   </si>
   <si>
-    <t>知情權</t>
+    <t>知情权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
